--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25437.16755718045</v>
+        <v>5061996.343878909</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25437.16755718045</v>
+        <v>5061996.343878909</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52481.90834156427</v>
+        <v>4405544.432694239</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52481.90834156427</v>
+        <v>4405544.432694239</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610163481.010848</v>
+        <v>63287094.90169825</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13910.43586399268</v>
+        <v>1448979.278836424</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27056.50311996595</v>
+        <v>2771325.171185647</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40202.57037593921</v>
+        <v>4093671.063534873</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55274.03992519721</v>
+        <v>5354140.099328972</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70257.21048455618</v>
+        <v>6597037.636133172</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85240.38104391517</v>
+        <v>7839935.172937367</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100892.7233204458</v>
+        <v>9108441.396610247</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116416.3787282898</v>
+        <v>10351338.93341444</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131270.9649400229</v>
+        <v>11549358.75736733</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146025.2406757122</v>
+        <v>12798880.6967682</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160779.5164114014</v>
+        <v>14048402.63616908</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>174316.5625228511</v>
+        <v>15316369.00513687</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187941.9076241997</v>
+        <v>16601906.87309456</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>205461.0139919277</v>
+        <v>17425771.28642559</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>223122.1023682928</v>
+        <v>18082496.19686268</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>216</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>325</v>
